--- a/com.AutomationFramework/src/test/resources/testData.xlsx
+++ b/com.AutomationFramework/src/test/resources/testData.xlsx
@@ -1,20 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20407"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{711B5434-933B-482F-8049-3DDA6FC23772}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5556" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="invalidcreds" sheetId="1" r:id="rId1"/>
+    <sheet name="managercreds" sheetId="2" r:id="rId2"/>
+    <sheet name="taskpagecreds" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="22">
   <si>
     <t>Username</t>
   </si>
@@ -50,12 +53,42 @@
   </si>
   <si>
     <t>fireflink</t>
+  </si>
+  <si>
+    <t>FirstName</t>
+  </si>
+  <si>
+    <t>LastName</t>
+  </si>
+  <si>
+    <t>Mahi</t>
+  </si>
+  <si>
+    <t>mahibhai07</t>
+  </si>
+  <si>
+    <t>mahi</t>
+  </si>
+  <si>
+    <t>Bhai</t>
+  </si>
+  <si>
+    <t>Customer</t>
+  </si>
+  <si>
+    <t>ProjectName</t>
+  </si>
+  <si>
+    <t>Microsoft</t>
+  </si>
+  <si>
+    <t>WebApplication</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -203,6 +236,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -238,6 +288,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -413,20 +480,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -434,7 +501,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -442,7 +509,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -450,7 +517,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
@@ -458,7 +525,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
@@ -466,7 +533,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>10</v>
       </c>
@@ -474,12 +541,96 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2DD8386E-4A86-4629-9CD0-1F77C9AB0DEF}">
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="Q13" activeCellId="1" sqref="G8 Q13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="10.88671875" customWidth="1"/>
+    <col min="2" max="2" width="12.109375" customWidth="1"/>
+    <col min="3" max="3" width="12.33203125" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7274BC73-D4AF-4D35-82E1-E1B2DB6532DA}">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="16.109375" customWidth="1"/>
+    <col min="2" max="2" width="16.44140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>
